--- a/Scraped Data/Meera Industries Ltd_Data.xlsx
+++ b/Scraped Data/Meera Industries Ltd_Data.xlsx
@@ -647,6 +647,9 @@
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E5" s="3">
+        <v>3.76</v>
+      </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
@@ -661,6 +664,9 @@
       </c>
       <c r="J5" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="K5" s="3">
+        <v>13.37</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -676,6 +682,9 @@
       <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="E6" s="3">
+        <v>9.040000000000001</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
@@ -690,6 +699,9 @@
       </c>
       <c r="J6" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="K6" s="3">
+        <v>21.89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -705,6 +717,9 @@
       <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="E7" s="3">
+        <v>13.94</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
@@ -719,6 +734,9 @@
       </c>
       <c r="J7" s="3" t="s">
         <v>53</v>
+      </c>
+      <c r="K7" s="3">
+        <v>36.38</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -734,6 +752,9 @@
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E8" s="3">
+        <v>23.36</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
@@ -748,6 +769,9 @@
       </c>
       <c r="J8" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="K8" s="3">
+        <v>21.11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -763,6 +787,9 @@
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="3">
+        <v>25.04</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
@@ -777,6 +804,9 @@
       </c>
       <c r="J9" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="K9" s="3">
+        <v>22.7</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -792,6 +822,9 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E10" s="3">
+        <v>26.15</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
@@ -806,6 +839,9 @@
       </c>
       <c r="J10" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="K10" s="3">
+        <v>31.89</v>
       </c>
     </row>
   </sheetData>

--- a/Scraped Data/Meera Industries Ltd_Data.xlsx
+++ b/Scraped Data/Meera Industries Ltd_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Mar 2016</t>
   </si>
@@ -22,22 +22,88 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Shareholder's Funds</t>
+    <t>Meera Industries Ltd</t>
+  </si>
+  <si>
+    <t>Mar 2017</t>
+  </si>
+  <si>
+    <t>Shareholder</t>
+  </si>
+  <si>
+    <t>Funds</t>
   </si>
   <si>
     <t>Debts</t>
   </si>
   <si>
-    <t>Total Revenue</t>
-  </si>
-  <si>
-    <t>Profit Before Tax (PBT)</t>
-  </si>
-  <si>
-    <t>Profit After Tax (PAT)</t>
-  </si>
-  <si>
-    <t>Cash / Cash Equivalents</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash Eq</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>Mar 2018</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>Mar 2019</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>6.60</t>
+  </si>
+  <si>
+    <t>4.92</t>
+  </si>
+  <si>
+    <t>Mar 2020</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>Mar 2021</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>2.22</t>
   </si>
 </sst>
 </file>
@@ -391,56 +457,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:31">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="2">
+        <v>3.76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13.37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>9.040000000000001</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>21.89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2">
+        <v>13.94</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
+        <v>36.38</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="2">
+        <v>23.36</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="2">
+        <v>21.11</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>22.7</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scraped Data/Meera Industries Ltd_Data.xlsx
+++ b/Scraped Data/Meera Industries Ltd_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Mar 2016</t>
   </si>
@@ -37,6 +37,39 @@
     <t>Debts</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash Eq</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Mar 2018</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>Mar 2019</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Mar 2020</t>
+  </si>
+  <si>
+    <t>Mar 2021</t>
+  </si>
+  <si>
+    <t>Mar 2022</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -49,61 +82,40 @@
     <t>PAT</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Cash Eq</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
     <t>1.47</t>
   </si>
   <si>
     <t>1.06</t>
   </si>
   <si>
-    <t>Mar 2018</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
     <t>3.35</t>
   </si>
   <si>
     <t>2.47</t>
   </si>
   <si>
-    <t>Mar 2019</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>6.60</t>
   </si>
   <si>
     <t>4.92</t>
   </si>
   <si>
-    <t>Mar 2020</t>
-  </si>
-  <si>
     <t>0.74</t>
   </si>
   <si>
     <t>0.52</t>
   </si>
   <si>
-    <t>Mar 2021</t>
-  </si>
-  <si>
     <t>2.92</t>
   </si>
   <si>
     <t>2.22</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>2.67</t>
   </si>
 </sst>
 </file>
@@ -457,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -479,9 +491,12 @@
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
     <col min="28" max="28" width="15.7109375" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,7 +506,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -499,7 +514,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -507,7 +522,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -515,15 +530,23 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:37">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -534,16 +557,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>4</v>
@@ -552,16 +575,16 @@
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>4</v>
@@ -570,16 +593,16 @@
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>4</v>
@@ -588,16 +611,16 @@
         <v>6</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>4</v>
@@ -606,66 +629,93 @@
         <v>6</v>
       </c>
       <c r="AB2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>11</v>
+      <c r="AF2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:37">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>12</v>
+      <c r="AF3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:37">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -673,86 +723,108 @@
         <v>3.76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>13.37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>9.040000000000001</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2">
         <v>21.89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
         <v>13.94</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P4" s="2">
         <v>36.38</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T4" s="2">
         <v>23.36</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="V4" s="2">
         <v>21.11</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="2">
         <v>25.04</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB4" s="2">
         <v>22.7</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>26.15</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>31.89</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="T1:Y1"/>
     <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="AF1:AK1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
